--- a/firmware/Contrrol/Map Registers Control_LED.xlsx
+++ b/firmware/Contrrol/Map Registers Control_LED.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64F75B-45D5-45DB-A63B-7B9F82A0C304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$3:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -192,110 +191,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">C1A16D1N1x
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - комманда
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Адрес начала диапазона. начинается с 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- количество устройств (на одной плате два устройства). 15 максимум
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - читать или писать диапазон
- записывать "0"
- читать"1" 
- очистить память устройств "2"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">C2A1D1N0x
 </t>
     </r>
@@ -791,7 +686,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">C16A16D1N1x
+      <t xml:space="preserve">C16A1D30N1x
 C16 - комманда
 A1 - какую часть адреса пишем xx.xx.xx.xx.xx.xx
 xx(6) xx(5) xx(4) xx(3) xx(2) xx(1) 
@@ -811,11 +706,115 @@
       <t>После этой команды требуется сохранить настройки командой C9</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C1A1D8N1x
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - комманда
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Адрес начала диапазона. начинается с 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- количество устройств (на одной плате два устройства). 15 максимум
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - читать или писать диапазон
+ записывать "0"
+ читать"1" 
+ очистить память устройств "2"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1054,23 +1053,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1106,23 +1088,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1298,27 +1263,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="43.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="43.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1327,7 +1292,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1365,11 +1330,11 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1384,11 +1349,11 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1403,11 +1368,11 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1422,11 +1387,11 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1441,11 +1406,11 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1458,11 +1423,11 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1477,11 +1442,11 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1496,11 +1461,11 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1513,11 +1478,11 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1532,11 +1497,11 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1549,11 +1514,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1568,11 +1533,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1587,11 +1552,11 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1606,11 +1571,11 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1625,11 +1590,11 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1644,11 +1609,11 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1663,7 +1628,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1672,7 +1637,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1681,7 +1646,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1690,7 +1655,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1699,7 +1664,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1708,7 +1673,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1717,7 +1682,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1726,7 +1691,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1735,7 +1700,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1744,7 +1709,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1753,7 +1718,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1762,7 +1727,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1771,7 +1736,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1780,7 +1745,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1789,7 +1754,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1798,7 +1763,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1807,7 +1772,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1816,7 +1781,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1825,7 +1790,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1834,7 +1799,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1843,7 +1808,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1852,7 +1817,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1861,7 +1826,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1870,7 +1835,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1879,7 +1844,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1888,7 +1853,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1897,7 +1862,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1906,7 +1871,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1915,7 +1880,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1935,12 +1900,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1948,12 +1913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/firmware/Contrrol/Map Registers Control_LED.xlsx
+++ b/firmware/Contrrol/Map Registers Control_LED.xlsx
@@ -599,115 +599,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">C13A1D192N0x
-C113- комманда
-A1 - какую часть адреса пишем 192.168.1.100
-192(4) 168(3) 1(2) 100(1) 
-D -значение для установки
-N1 - не используется
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>После этой команды требуется сохранить настройки командой C9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C12A0D1N0x
-C12 - комманда Включения DHCP
-A0 -  
-D1 - 1 выставляет в настройку true, 0 - выставляет false. После этой команды требуется сохранить настройки командой C9
-N0 -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>После этой команды требуется сохранить настройки командой C9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C14A1D255N0x
-C14 - комманда
-A1 - какую часть адреса пишем 255.255.255.0
-255(4) 255(3) 255(2) 0(1) 
-D -значение для установки
-N1 - не используется
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>После этой команды требуется сохранить настройки командой C9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C15A16D1N1x
-C15 - комманда
-A1 - какую часть адреса пишем 192.168.1.100
-192(4) 168(3) 1(2) 100(1) 
-D -значение для установки
-N1 - не используется
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>После этой команды требуется сохранить настройки командой C9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C16A1D30N1x
-C16 - комманда
-A1 - какую часть адреса пишем xx.xx.xx.xx.xx.xx
-xx(6) xx(5) xx(4) xx(3) xx(2) xx(1) 
-D -значение для установки
-N1 - не используется
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>После этой команды требуется сохранить настройки командой C9</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">C1A1D8N1x
 </t>
     </r>
@@ -808,6 +699,116 @@
  записывать "0"
  читать"1" 
  очистить память устройств "2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C16A1D30N1x
+C16 - комманда
+A1 - какую часть адреса пишем xx.xx.xx.xx.xx.xx
+xx(0) xx(1) xx(2) xx(3) xx(4) xx(5) 
+D -значение для установки
+N1 - не используется
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>После этой команды требуется сохранить настройки командой C9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C13A1D192N0x
+C113- комманда
+A1 - какую часть адреса пишем 192.168.1.100
+192(0) 168(1) 1(2) 100(3) 
+D -значение для установки
+N1 - не используется
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>После этой команды требуется сохранить настройки командой C9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C14A1D255N0x
+C14 - комманда
+A1 - какую часть адреса пишем 255.255.255.0
+255(0) 255(1) 255(2) 0(3) 
+D -значение для установки
+N1 - не используется
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>После этой команды требуется сохранить настройки командой C9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C15A16D1N1x
+C15 - комманда
+A1 - какую часть адреса пишем 192.168.1.100
+192(0) 168(1) 1(2) 100(3) 
+D -значение для установки
+N1 - не используется
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>После этой команды требуется сохранить настройки командой C9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C12A0D1N0x
+C12 - комманда Включения DHCP
+A0 -  
+D1 - 1 выставляет в настройку true включить DHCH,
+ 0 - выставляет false выключить DHCH. 
+N0 -
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>После этой команды требуется сохранить настройки командой C9</t>
     </r>
   </si>
 </sst>
@@ -1266,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1331,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1533,7 +1534,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1552,7 +1553,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1571,7 +1572,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1590,7 +1591,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1609,7 +1610,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2"/>
     </row>

--- a/firmware/Contrrol/Map Registers Control_LED.xlsx
+++ b/firmware/Contrrol/Map Registers Control_LED.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEBAB19-EF9B-42E5-9332-FA0C80A1FD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="768" yWindow="-12156" windowWidth="20952" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,18 +16,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$3:$G$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Десятичная</t>
   </si>
@@ -811,11 +805,74 @@
       <t>После этой команды требуется сохранить настройки командой C9</t>
     </r>
   </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">режим работы моста </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C18A0D00N0x
+C18 - комманда
+A1 -0 (запись), 1-(чтение)
+D -0(RTU), 1-(Stream)
+N1 - не используется
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>После этой команды требуется сохранить настройки командой C9</t>
+    </r>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">порт работы моста </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C18A0D5020N0x
+C18 - комманда
+A1 -0 (запись), 1-(чтение)
+D -502
+N1 - не используется
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>После этой команды требуется сохранить настройки командой C9</t>
+    </r>
+  </si>
+  <si>
+    <t>D-0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1054,6 +1111,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1089,6 +1163,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1264,27 +1355,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="43.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="43.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1293,7 +1384,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +1426,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1445,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1464,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1483,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1502,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1519,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1538,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1557,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1483,7 +1574,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1593,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1610,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1629,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1648,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1576,7 +1667,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1686,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1705,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1629,25 +1720,49 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1656,7 +1771,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1665,7 +1780,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1674,7 +1789,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1683,7 +1798,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1692,7 +1807,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1701,7 +1816,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1710,7 +1825,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1719,7 +1834,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1728,7 +1843,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1737,7 +1852,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1746,7 +1861,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1755,7 +1870,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1764,7 +1879,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1773,7 +1888,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1782,7 +1897,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1791,7 +1906,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1800,7 +1915,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1809,7 +1924,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1818,7 +1933,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1827,7 +1942,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1836,7 +1951,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1845,7 +1960,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1854,7 +1969,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1863,7 +1978,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1872,7 +1987,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1881,7 +1996,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1901,12 +2016,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1914,12 +2029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
